--- a/Result/MT_RR_10.xlsx
+++ b/Result/MT_RR_10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="420" windowWidth="19875" windowHeight="11805"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="MT_RR_10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>thread_id</t>
   </si>
@@ -49,10 +49,19 @@
     <t>CPU Usage</t>
   </si>
   <si>
-    <t>Fairness</t>
-  </si>
-  <si>
     <t>Context Switch</t>
+  </si>
+  <si>
+    <t>Fairness(QWT)</t>
+  </si>
+  <si>
+    <t>Fairness(RT)</t>
+  </si>
+  <si>
+    <t>Fairness(ET)</t>
+  </si>
+  <si>
+    <t>Elapsed Time</t>
   </si>
 </sst>
 </file>
@@ -63,14 +72,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -78,7 +87,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -86,7 +95,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +103,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -102,35 +111,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,7 +147,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,14 +155,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,14 +170,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +185,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,14 +193,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -881,15 +890,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,22 +924,31 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -957,16 +975,20 @@
         <f>D2</f>
         <v>26.34</v>
       </c>
-      <c r="K2">
-        <f>((E2+F2)/$I$12)*100</f>
+      <c r="I2">
+        <f>(C2-$B$12)/100</f>
+        <v>26.34</v>
+      </c>
+      <c r="L2">
+        <f>((E2+F2)/$J$12)*100</f>
         <v>95.645701525865263</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <f>F2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -993,16 +1015,20 @@
         <f t="shared" ref="H3:H11" si="1">D3</f>
         <v>26.32</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K11" si="2">((E3+F3)/$I$12)*100</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="2">(C3-$B$12)/100</f>
+        <v>26.42</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="3">((E3+F3)/$J$12)*100</f>
         <v>95.608485299590612</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M11" si="3">F3</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P11" si="4">F3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1029,16 +1055,20 @@
         <f t="shared" si="1"/>
         <v>26.3</v>
       </c>
-      <c r="K4">
+      <c r="I4">
         <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
         <v>95.534052847041323</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
+      <c r="P4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1065,16 +1095,20 @@
         <f t="shared" si="1"/>
         <v>26.23</v>
       </c>
-      <c r="K5">
+      <c r="I5">
         <f t="shared" si="2"/>
+        <v>26.53</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
         <v>95.273539263118721</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
+      <c r="P5">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1101,16 +1135,20 @@
         <f t="shared" si="1"/>
         <v>26.18</v>
       </c>
-      <c r="K6">
+      <c r="I6">
         <f t="shared" si="2"/>
+        <v>26.58</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
         <v>95.050241905470784</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
+      <c r="P6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1137,16 +1175,20 @@
         <f t="shared" si="1"/>
         <v>26.11</v>
       </c>
-      <c r="K7">
+      <c r="I7">
         <f t="shared" si="2"/>
+        <v>26.62</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
         <v>94.826944547822848</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
+      <c r="P7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1173,16 +1215,20 @@
         <f t="shared" si="1"/>
         <v>26.09</v>
       </c>
-      <c r="K8">
+      <c r="I8">
         <f t="shared" si="2"/>
+        <v>26.7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
         <v>94.752512095273545</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
+      <c r="P8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1209,16 +1255,20 @@
         <f t="shared" si="1"/>
         <v>26.05</v>
       </c>
-      <c r="K9">
+      <c r="I9">
         <f t="shared" si="2"/>
+        <v>26.76</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
         <v>94.603647190174925</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
+      <c r="P9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1245,16 +1295,20 @@
         <f t="shared" si="1"/>
         <v>26.02</v>
       </c>
-      <c r="K10">
+      <c r="I10">
         <f t="shared" si="2"/>
+        <v>26.83</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
         <v>94.491998511350943</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
+      <c r="P10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1281,16 +1335,20 @@
         <f t="shared" si="1"/>
         <v>25.96</v>
       </c>
-      <c r="K11">
+      <c r="I11">
         <f t="shared" si="2"/>
+        <v>26.87</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
         <v>94.231484927428355</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
+      <c r="P11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <f>MIN(B2:B11)</f>
         <v>1718526850</v>
@@ -1303,23 +1361,31 @@
         <f>AVERAGE(H2:H11)</f>
         <v>26.160000000000004</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>26.87</v>
       </c>
-      <c r="J12">
-        <f>100/I12</f>
+      <c r="K12">
+        <f>100/J12</f>
         <v>3.721622627465575</v>
       </c>
-      <c r="K12">
-        <f>AVERAGE(K2:K11)</f>
+      <c r="L12">
+        <f>AVERAGE(L2:L11)</f>
         <v>95.001860811313733</v>
       </c>
-      <c r="L12">
+      <c r="M12">
+        <f>_xlfn.STDEV.P(G2:G11)</f>
+        <v>0.29159046623646678</v>
+      </c>
+      <c r="N12">
         <f>_xlfn.STDEV.P(D2:D11)</f>
         <v>0.12727922061357855</v>
       </c>
-      <c r="M12">
-        <f>AVERAGE(M2:M11)</f>
+      <c r="O12">
+        <f>_xlfn.STDEV.P(I2:I11)</f>
+        <v>0.16578600664712309</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(P2:P11)</f>
         <v>0</v>
       </c>
     </row>
